--- a/tests/Feature/config/child_zero.xlsx
+++ b/tests/Feature/config/child_zero.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
-    <sheet name="John Doe Junior" sheetId="2" r:id="rId5"/>
+    <sheet name="child1" sheetId="2" r:id="rId5"/>
+    <sheet name="Statistics" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>private</t>
   </si>
@@ -135,7 +136,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>John Doe Junior</t>
+    <t>child1</t>
   </si>
   <si>
     <t>child</t>
@@ -144,25 +145,29 @@
     <t>Income and expences related to children</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">BarnetrygdNormal: 21192Normal: 36000 Asset rule </t>
+    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
+Using current value: 3000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 21192Using previous value: 36000 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 36000 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">BarnetrygdNormal: 15720Using previous value: 36000 Asset rule </t>
+    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
+Using previous value: 36000 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 15720Using previous value: 36000 Asset rule </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using previous value: 36000 Asset rule </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slutt på sponsing av barnUsing previous value: 36000 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Slutt på sponsing av barnUsing previous value: 36000 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
 </sst>
 </file>
@@ -741,11 +746,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
@@ -770,11 +775,11 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -784,17 +789,17 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0.0</v>
@@ -813,11 +818,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -842,11 +847,11 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -856,17 +861,17 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0.0</v>
@@ -885,11 +890,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
@@ -914,11 +919,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -928,17 +933,17 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0.0</v>
@@ -957,11 +962,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -986,11 +991,11 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -1000,17 +1005,17 @@
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0.0</v>
@@ -1029,11 +1034,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1058,11 +1063,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -1072,17 +1077,17 @@
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0.0</v>
@@ -1101,11 +1106,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1130,11 +1135,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -1144,17 +1149,17 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0.0</v>
@@ -1173,11 +1178,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1202,11 +1207,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -1216,17 +1221,17 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0.0</v>
@@ -1245,11 +1250,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1274,11 +1279,11 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -1288,17 +1293,17 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0.0</v>
@@ -1317,11 +1322,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1346,11 +1351,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -1360,17 +1365,17 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0.0</v>
@@ -1389,11 +1394,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1418,11 +1423,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -1432,17 +1437,17 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0.0</v>
@@ -1461,11 +1466,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -1490,11 +1495,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -1504,17 +1509,17 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0.0</v>
@@ -1533,11 +1538,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -1562,11 +1567,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -1576,17 +1581,17 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0.0</v>
@@ -1605,11 +1610,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -1634,11 +1639,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -1648,17 +1653,17 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0.0</v>
@@ -1677,11 +1682,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -1706,11 +1711,11 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -1720,17 +1725,17 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0.0</v>
@@ -1749,11 +1754,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -1778,11 +1783,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -1792,17 +1797,17 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0.0</v>
@@ -1821,11 +1826,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -1850,11 +1855,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -1864,17 +1869,17 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0.0</v>
@@ -1893,11 +1898,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -1922,11 +1927,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -1936,17 +1941,17 @@
         <v>-25404.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y22" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z22" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="AA22">
         <v>0.0</v>
@@ -1967,11 +1972,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -1996,11 +2001,11 @@
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
@@ -2010,17 +2015,17 @@
         <v>-25404.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y23" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z23" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="AA23">
         <v>0.0</v>
@@ -2041,11 +2046,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2070,11 +2075,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
@@ -2084,17 +2089,17 @@
         <v>-25404.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y24" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z24" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="AA24">
         <v>0.0</v>
@@ -2115,11 +2120,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2144,11 +2149,11 @@
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
@@ -2158,17 +2163,17 @@
         <v>-25404.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y25" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z25" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="AA25">
         <v>0.0</v>
@@ -2189,11 +2194,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
@@ -2218,11 +2223,11 @@
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
@@ -2232,17 +2237,17 @@
         <v>-25404.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y26" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z26" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="AA26">
         <v>0.0</v>
@@ -2263,11 +2268,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
@@ -2292,11 +2297,11 @@
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
@@ -2306,17 +2311,17 @@
         <v>-25404.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y27" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z27" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="AA27">
         <v>0.0</v>
@@ -2337,11 +2342,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
@@ -2366,11 +2371,11 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
@@ -2380,17 +2385,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y28" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z28" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA28">
         <v>0.0</v>
@@ -2411,11 +2416,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
@@ -2440,11 +2445,11 @@
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
@@ -2454,17 +2459,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y29" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z29" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA29">
         <v>0.0</v>
@@ -2485,11 +2490,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
@@ -2514,11 +2519,11 @@
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
@@ -2528,17 +2533,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y30" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z30" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA30">
         <v>0.0</v>
@@ -2559,11 +2564,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
@@ -2588,11 +2593,11 @@
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
@@ -2602,17 +2607,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y31" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z31" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA31">
         <v>0.0</v>
@@ -2633,11 +2638,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
@@ -2662,11 +2667,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
@@ -2676,17 +2681,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y32" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z32" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA32">
         <v>0.0</v>
@@ -2707,11 +2712,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
@@ -2736,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
@@ -2750,17 +2755,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y33" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z33" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA33">
         <v>0.0</v>
@@ -2781,11 +2786,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
@@ -2810,11 +2815,11 @@
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
@@ -2824,17 +2829,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y34" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z34" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA34">
         <v>0.0</v>
@@ -2855,11 +2860,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -2884,11 +2889,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1">
@@ -2898,17 +2903,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y35" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z35" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA35">
         <v>0.0</v>
@@ -2929,11 +2934,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -2958,11 +2963,11 @@
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1">
@@ -2972,17 +2977,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y36" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z36" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA36">
         <v>0.0</v>
@@ -3003,11 +3008,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3032,11 +3037,11 @@
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1">
@@ -3046,17 +3051,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y37" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z37" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA37">
         <v>0.0</v>
@@ -3077,11 +3082,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="8">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8">
@@ -3106,11 +3111,11 @@
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="8">
@@ -3120,17 +3125,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y38" s="8">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z38" s="8">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA38" s="7">
         <v>0.0</v>
@@ -3151,11 +3156,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3180,11 +3185,11 @@
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="1">
@@ -3194,17 +3199,17 @@
         <v>-28140.0</v>
       </c>
       <c r="V39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y39" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z39" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA39">
         <v>0.0</v>
@@ -3225,11 +3230,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>15720.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3247,48 +3252,46 @@
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>-7860.0</v>
+        <v>0.0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S40" s="12"/>
       <c r="T40" s="11">
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-28140.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="V40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>15720.0</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="11">
-        <v>78600.0</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="11">
-        <v>78600.0</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>-28140.0</v>
-      </c>
-      <c r="AC40" s="12">
-        <v>-1.7900763358779</v>
-      </c>
+        <v>-36000.0</v>
+      </c>
+      <c r="AC40" s="12"/>
       <c r="AD40" s="10"/>
     </row>
     <row r="41" spans="1:31">
@@ -3299,11 +3302,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3328,11 +3331,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="1">
@@ -3342,17 +3345,17 @@
         <v>-36000.0</v>
       </c>
       <c r="V41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA41">
         <v>0.0</v>
@@ -3371,11 +3374,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3400,11 +3403,11 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="1">
@@ -3414,17 +3417,17 @@
         <v>-36000.0</v>
       </c>
       <c r="V42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA42">
         <v>0.0</v>
@@ -3443,11 +3446,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3472,11 +3475,11 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="1">
@@ -3486,17 +3489,17 @@
         <v>-36000.0</v>
       </c>
       <c r="V43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <v>0.0</v>
@@ -3515,11 +3518,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3544,11 +3547,11 @@
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="1">
@@ -3558,17 +3561,17 @@
         <v>-36000.0</v>
       </c>
       <c r="V44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>0.0</v>
@@ -3587,11 +3590,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>36000.0</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3616,37 +3619,37 @@
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="1">
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="V45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45"/>
@@ -3659,11 +3662,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3688,11 +3691,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="1">
@@ -3702,17 +3705,17 @@
         <v>0.0</v>
       </c>
       <c r="V46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA46">
         <v>0.0</v>
@@ -3731,11 +3734,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -3760,11 +3763,11 @@
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="1">
@@ -3774,17 +3777,17 @@
         <v>0.0</v>
       </c>
       <c r="V47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA47">
         <v>0.0</v>
@@ -3803,11 +3806,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -3832,11 +3835,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="1">
@@ -3846,17 +3849,17 @@
         <v>0.0</v>
       </c>
       <c r="V48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA48">
         <v>0.0</v>
@@ -3875,11 +3878,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -3904,11 +3907,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="1">
@@ -3918,17 +3921,17 @@
         <v>0.0</v>
       </c>
       <c r="V49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>0.0</v>
@@ -3947,11 +3950,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -3976,11 +3979,11 @@
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="1">
@@ -3990,17 +3993,17 @@
         <v>0.0</v>
       </c>
       <c r="V50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA50">
         <v>0.0</v>
@@ -4019,11 +4022,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4048,11 +4051,11 @@
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="1">
@@ -4062,17 +4065,17 @@
         <v>0.0</v>
       </c>
       <c r="V51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <v>0.0</v>
@@ -4091,11 +4094,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4120,11 +4123,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="1">
@@ -4134,17 +4137,17 @@
         <v>0.0</v>
       </c>
       <c r="V52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA52">
         <v>0.0</v>
@@ -4163,11 +4166,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4192,11 +4195,11 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="13">
@@ -4206,17 +4209,17 @@
         <v>0.0</v>
       </c>
       <c r="V53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="3">
         <v>0.0</v>
@@ -4235,11 +4238,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4264,11 +4267,11 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="1">
@@ -4278,17 +4281,17 @@
         <v>0.0</v>
       </c>
       <c r="V54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA54">
         <v>0.0</v>
@@ -4307,11 +4310,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4336,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="1">
@@ -4350,17 +4353,17 @@
         <v>0.0</v>
       </c>
       <c r="V55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <v>0.0</v>
@@ -4379,11 +4382,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4408,11 +4411,11 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="1">
@@ -4422,17 +4425,17 @@
         <v>0.0</v>
       </c>
       <c r="V56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA56">
         <v>0.0</v>
@@ -4451,11 +4454,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4480,11 +4483,11 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="13">
@@ -4494,17 +4497,17 @@
         <v>0.0</v>
       </c>
       <c r="V57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>0.0</v>
@@ -4523,11 +4526,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4552,11 +4555,11 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="1">
@@ -4566,17 +4569,17 @@
         <v>0.0</v>
       </c>
       <c r="V58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>0.0</v>
@@ -4595,11 +4598,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4624,11 +4627,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="1">
@@ -4638,17 +4641,17 @@
         <v>0.0</v>
       </c>
       <c r="V59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA59">
         <v>0.0</v>
@@ -4667,11 +4670,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4696,11 +4699,11 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="1">
@@ -4710,17 +4713,17 @@
         <v>0.0</v>
       </c>
       <c r="V60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA60">
         <v>0.0</v>
@@ -4739,11 +4742,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -4768,11 +4771,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="1">
@@ -4782,17 +4785,17 @@
         <v>0.0</v>
       </c>
       <c r="V61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA61">
         <v>0.0</v>
@@ -4811,11 +4814,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -4840,11 +4843,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="1">
@@ -4854,17 +4857,17 @@
         <v>0.0</v>
       </c>
       <c r="V62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA62">
         <v>0.0</v>
@@ -4883,11 +4886,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -4912,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="1">
@@ -4926,17 +4929,17 @@
         <v>0.0</v>
       </c>
       <c r="V63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA63">
         <v>0.0</v>
@@ -4955,11 +4958,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -4984,11 +4987,11 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="1">
@@ -4998,17 +5001,17 @@
         <v>0.0</v>
       </c>
       <c r="V64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA64">
         <v>0.0</v>
@@ -5027,11 +5030,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5056,11 +5059,11 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="1">
@@ -5070,17 +5073,17 @@
         <v>0.0</v>
       </c>
       <c r="V65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA65">
         <v>0.0</v>
@@ -5099,11 +5102,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5128,11 +5131,11 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="1">
@@ -5142,17 +5145,17 @@
         <v>0.0</v>
       </c>
       <c r="V66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA66">
         <v>0.0</v>
@@ -5171,11 +5174,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5200,11 +5203,11 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="1">
@@ -5214,17 +5217,17 @@
         <v>0.0</v>
       </c>
       <c r="V67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA67">
         <v>0.0</v>
@@ -5243,11 +5246,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5272,11 +5275,11 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="1">
@@ -5286,17 +5289,17 @@
         <v>0.0</v>
       </c>
       <c r="V68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>0.0</v>
@@ -5315,11 +5318,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5344,11 +5347,11 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="1">
@@ -5358,17 +5361,17 @@
         <v>0.0</v>
       </c>
       <c r="V69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA69">
         <v>0.0</v>
@@ -5387,11 +5390,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5416,11 +5419,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="1">
@@ -5430,17 +5433,17 @@
         <v>0.0</v>
       </c>
       <c r="V70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA70">
         <v>0.0</v>
@@ -5459,11 +5462,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5488,11 +5491,11 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="1">
@@ -5502,17 +5505,17 @@
         <v>0.0</v>
       </c>
       <c r="V71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>0.0</v>
@@ -5531,11 +5534,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5560,11 +5563,11 @@
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="5">
@@ -5574,17 +5577,17 @@
         <v>0.0</v>
       </c>
       <c r="V72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="15">
         <v>0.0</v>
@@ -5848,8 +5851,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -6028,11 +6031,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
@@ -6053,11 +6056,11 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -6067,14 +6070,14 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6">
@@ -6096,11 +6099,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -6121,11 +6124,11 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -6135,14 +6138,14 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7">
@@ -6164,11 +6167,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -6189,11 +6192,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -6203,14 +6206,14 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8">
@@ -6232,11 +6235,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -6257,11 +6260,11 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -6271,14 +6274,14 @@
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9">
@@ -6300,11 +6303,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -6325,11 +6328,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -6339,14 +6342,14 @@
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10">
@@ -6368,11 +6371,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -6393,11 +6396,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -6407,14 +6410,14 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11">
@@ -6436,11 +6439,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -6461,11 +6464,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -6475,14 +6478,14 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12">
@@ -6504,11 +6507,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -6529,11 +6532,11 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -6543,14 +6546,14 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13">
@@ -6572,11 +6575,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -6597,11 +6600,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -6611,14 +6614,14 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14">
@@ -6640,11 +6643,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -6665,11 +6668,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -6679,14 +6682,14 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15">
@@ -6708,11 +6711,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -6733,11 +6736,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -6747,14 +6750,14 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16">
@@ -6776,11 +6779,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -6801,11 +6804,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -6815,14 +6818,14 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17">
@@ -6844,11 +6847,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -6869,11 +6872,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -6883,14 +6886,14 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18">
@@ -6912,11 +6915,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -6937,11 +6940,11 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -6951,14 +6954,14 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19">
@@ -6980,11 +6983,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -7005,11 +7008,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -7019,14 +7022,14 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20">
@@ -7048,11 +7051,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -7073,11 +7076,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -7087,14 +7090,14 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21">
@@ -7116,11 +7119,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -7141,11 +7144,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -7155,14 +7158,14 @@
         <v>-25404.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y22" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22">
@@ -7184,11 +7187,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
@@ -7209,11 +7212,11 @@
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
@@ -7223,14 +7226,14 @@
         <v>-25404.0</v>
       </c>
       <c r="V23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y23" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23">
@@ -7252,11 +7255,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
@@ -7277,11 +7280,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
@@ -7291,14 +7294,14 @@
         <v>-25404.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y24" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24">
@@ -7320,11 +7323,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
@@ -7345,11 +7348,11 @@
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
@@ -7359,14 +7362,14 @@
         <v>-25404.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y25" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25">
@@ -7388,11 +7391,11 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
@@ -7413,11 +7416,11 @@
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
@@ -7427,14 +7430,14 @@
         <v>-25404.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y26" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26">
@@ -7456,11 +7459,11 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -7481,11 +7484,11 @@
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
@@ -7495,14 +7498,14 @@
         <v>-25404.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y27" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27">
@@ -7524,11 +7527,11 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
@@ -7549,11 +7552,11 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
@@ -7563,14 +7566,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y28" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28">
@@ -7592,11 +7595,11 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
@@ -7617,11 +7620,11 @@
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
@@ -7631,14 +7634,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y29" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29">
@@ -7649,7 +7652,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7660,11 +7663,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
@@ -7685,11 +7688,11 @@
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
@@ -7699,14 +7702,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y30" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30">
@@ -7717,7 +7720,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7728,11 +7731,11 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
@@ -7753,11 +7756,11 @@
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
@@ -7767,14 +7770,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y31" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31">
@@ -7785,7 +7788,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -7796,11 +7799,11 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
@@ -7821,11 +7824,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
@@ -7835,14 +7838,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y32" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32">
@@ -7853,7 +7856,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -7864,11 +7867,11 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1"/>
@@ -7889,11 +7892,11 @@
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
@@ -7903,14 +7906,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y33" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33">
@@ -7921,7 +7924,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -7932,11 +7935,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1"/>
@@ -7957,11 +7960,11 @@
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
@@ -7971,14 +7974,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y34" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34">
@@ -7989,7 +7992,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8000,11 +8003,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
@@ -8025,11 +8028,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1">
@@ -8039,14 +8042,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y35" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35">
@@ -8057,7 +8060,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8068,11 +8071,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
@@ -8093,11 +8096,11 @@
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1">
@@ -8107,14 +8110,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y36" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36">
@@ -8125,7 +8128,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8136,11 +8139,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
@@ -8161,11 +8164,11 @@
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1">
@@ -8175,14 +8178,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y37" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37">
@@ -8193,7 +8196,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8204,11 +8207,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="8">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8"/>
@@ -8229,11 +8232,11 @@
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="8">
@@ -8243,14 +8246,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y38" s="8">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="7">
@@ -8261,7 +8264,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8272,11 +8275,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
@@ -8297,11 +8300,11 @@
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="1">
@@ -8311,14 +8314,14 @@
         <v>-28140.0</v>
       </c>
       <c r="V39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y39" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39">
@@ -8329,7 +8332,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8340,11 +8343,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>15720.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11"/>
@@ -8356,7 +8359,7 @@
         <v>0.5</v>
       </c>
       <c r="M40" s="11">
-        <v>-7860.0</v>
+        <v>0.0</v>
       </c>
       <c r="N40" s="12">
         <v>0.5</v>
@@ -8365,39 +8368,39 @@
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S40" s="12"/>
       <c r="T40" s="11">
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-28140.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="V40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>15720.0</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="11">
-        <v>78600.0</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>-28140.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8408,11 +8411,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
@@ -8433,11 +8436,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="1">
@@ -8447,14 +8450,14 @@
         <v>-36000.0</v>
       </c>
       <c r="V41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
@@ -8465,7 +8468,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8476,11 +8479,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
@@ -8501,11 +8504,11 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="1">
@@ -8515,14 +8518,14 @@
         <v>-36000.0</v>
       </c>
       <c r="V42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
@@ -8533,7 +8536,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8544,11 +8547,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
@@ -8569,11 +8572,11 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="1">
@@ -8583,14 +8586,14 @@
         <v>-36000.0</v>
       </c>
       <c r="V43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
@@ -8601,7 +8604,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8612,11 +8615,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
@@ -8637,11 +8640,11 @@
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="1">
@@ -8651,14 +8654,14 @@
         <v>-36000.0</v>
       </c>
       <c r="V44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
@@ -8669,7 +8672,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8680,11 +8683,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>36000.0</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
@@ -8705,39 +8708,39 @@
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="1">
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="V45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>-36000.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8748,11 +8751,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
@@ -8773,11 +8776,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="1">
@@ -8787,14 +8790,14 @@
         <v>0.0</v>
       </c>
       <c r="V46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
@@ -8816,11 +8819,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
@@ -8841,11 +8844,11 @@
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="1">
@@ -8855,14 +8858,14 @@
         <v>0.0</v>
       </c>
       <c r="V47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
@@ -8884,11 +8887,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
@@ -8909,11 +8912,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="1">
@@ -8923,14 +8926,14 @@
         <v>0.0</v>
       </c>
       <c r="V48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
@@ -8952,11 +8955,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
@@ -8977,11 +8980,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="1">
@@ -8991,14 +8994,14 @@
         <v>0.0</v>
       </c>
       <c r="V49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
@@ -9020,11 +9023,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
@@ -9045,11 +9048,11 @@
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="1">
@@ -9059,14 +9062,14 @@
         <v>0.0</v>
       </c>
       <c r="V50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
@@ -9088,11 +9091,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
@@ -9113,11 +9116,11 @@
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="1">
@@ -9127,14 +9130,14 @@
         <v>0.0</v>
       </c>
       <c r="V51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
@@ -9156,11 +9159,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
@@ -9181,11 +9184,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="1">
@@ -9195,14 +9198,14 @@
         <v>0.0</v>
       </c>
       <c r="V52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
@@ -9224,11 +9227,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13"/>
@@ -9249,11 +9252,11 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="13">
@@ -9263,14 +9266,14 @@
         <v>0.0</v>
       </c>
       <c r="V53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="13"/>
       <c r="AA53" s="3">
@@ -9292,11 +9295,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
@@ -9317,11 +9320,11 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="1">
@@ -9331,14 +9334,14 @@
         <v>0.0</v>
       </c>
       <c r="V54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54">
@@ -9360,11 +9363,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1"/>
@@ -9385,11 +9388,11 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="1">
@@ -9399,14 +9402,14 @@
         <v>0.0</v>
       </c>
       <c r="V55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55">
@@ -9428,11 +9431,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
@@ -9453,11 +9456,11 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="1">
@@ -9467,14 +9470,14 @@
         <v>0.0</v>
       </c>
       <c r="V56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56">
@@ -9496,11 +9499,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13"/>
@@ -9521,11 +9524,11 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="13">
@@ -9535,14 +9538,14 @@
         <v>0.0</v>
       </c>
       <c r="V57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="13"/>
       <c r="AA57" s="3">
@@ -9564,11 +9567,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1"/>
@@ -9589,11 +9592,11 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="1">
@@ -9603,14 +9606,14 @@
         <v>0.0</v>
       </c>
       <c r="V58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58">
@@ -9632,11 +9635,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1"/>
@@ -9657,11 +9660,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="1">
@@ -9671,14 +9674,14 @@
         <v>0.0</v>
       </c>
       <c r="V59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59">
@@ -9700,11 +9703,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1"/>
@@ -9725,11 +9728,11 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="1">
@@ -9739,14 +9742,14 @@
         <v>0.0</v>
       </c>
       <c r="V60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60">
@@ -9768,11 +9771,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1"/>
@@ -9793,11 +9796,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="1">
@@ -9807,14 +9810,14 @@
         <v>0.0</v>
       </c>
       <c r="V61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61">
@@ -9836,11 +9839,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1"/>
@@ -9861,11 +9864,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="1">
@@ -9875,14 +9878,14 @@
         <v>0.0</v>
       </c>
       <c r="V62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62">
@@ -9904,11 +9907,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1"/>
@@ -9929,11 +9932,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="1">
@@ -9943,14 +9946,14 @@
         <v>0.0</v>
       </c>
       <c r="V63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63">
@@ -9972,11 +9975,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1"/>
@@ -9997,11 +10000,11 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="1">
@@ -10011,14 +10014,14 @@
         <v>0.0</v>
       </c>
       <c r="V64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64">
@@ -10040,11 +10043,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1"/>
@@ -10065,11 +10068,11 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="1">
@@ -10079,14 +10082,14 @@
         <v>0.0</v>
       </c>
       <c r="V65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65">
@@ -10108,11 +10111,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1"/>
@@ -10133,11 +10136,11 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="1">
@@ -10147,14 +10150,14 @@
         <v>0.0</v>
       </c>
       <c r="V66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66">
@@ -10176,11 +10179,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1"/>
@@ -10201,11 +10204,11 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="1">
@@ -10215,14 +10218,14 @@
         <v>0.0</v>
       </c>
       <c r="V67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67">
@@ -10244,11 +10247,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1"/>
@@ -10269,11 +10272,11 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="1">
@@ -10283,14 +10286,14 @@
         <v>0.0</v>
       </c>
       <c r="V68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68">
@@ -10312,11 +10315,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1"/>
@@ -10337,11 +10340,11 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="1">
@@ -10351,14 +10354,14 @@
         <v>0.0</v>
       </c>
       <c r="V69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69">
@@ -10380,11 +10383,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1"/>
@@ -10405,11 +10408,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="1">
@@ -10419,14 +10422,14 @@
         <v>0.0</v>
       </c>
       <c r="V70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70">
@@ -10448,11 +10451,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1"/>
@@ -10473,11 +10476,11 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="1">
@@ -10487,14 +10490,14 @@
         <v>0.0</v>
       </c>
       <c r="V71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71">
@@ -10516,11 +10519,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5"/>
@@ -10541,11 +10544,11 @@
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="5">
@@ -10555,14 +10558,14 @@
         <v>0.0</v>
       </c>
       <c r="V72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="5"/>
       <c r="AA72" s="15">
@@ -10814,4 +10817,32 @@
   </headerFooter>
   <tableParts count="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
 </file>
--- a/tests/Feature/config/child_zero.xlsx
+++ b/tests/Feature/config/child_zero.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>private</t>
   </si>
@@ -100,6 +100,9 @@
     <t>% Økning</t>
   </si>
   <si>
+    <t>Formue innskutt</t>
+  </si>
+  <si>
     <t>Formue skattbar</t>
   </si>
   <si>
@@ -145,28 +148,23 @@
     <t>Income and expences related to children</t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
-Using current value: 3000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">BarnetrygdUsing current amount: 3000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 36000 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 36000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
-Using previous value: 36000 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">BarnetrygdUsing previous amount: 36000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Slutt på sponsing av barnUsing previous value: 36000 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Slutt på sponsing av barnUsing previous amount: 36000 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
 </sst>
@@ -588,14 +586,14 @@
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -638,10 +636,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -704,10 +702,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -736,7 +734,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -781,20 +781,18 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
@@ -802,13 +800,15 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6"/>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7">
@@ -853,20 +853,18 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
@@ -874,13 +872,15 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7"/>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8">
@@ -925,20 +925,18 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
@@ -946,13 +944,15 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8"/>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8"/>
     </row>
     <row r="9" spans="1:31">
       <c r="A9">
@@ -997,20 +997,18 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
@@ -1018,13 +1016,15 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9"/>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10">
@@ -1069,20 +1069,18 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
@@ -1090,13 +1088,15 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10"/>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10"/>
     </row>
     <row r="11" spans="1:31">
       <c r="A11">
@@ -1141,20 +1141,18 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
@@ -1162,13 +1160,15 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11"/>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12">
@@ -1213,20 +1213,18 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
@@ -1234,13 +1232,15 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12"/>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13">
@@ -1285,20 +1285,18 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
@@ -1306,13 +1304,15 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13"/>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13"/>
     </row>
     <row r="14" spans="1:31">
       <c r="A14">
@@ -1357,20 +1357,18 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
@@ -1378,13 +1376,15 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14"/>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15">
@@ -1429,20 +1429,18 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
@@ -1450,13 +1448,15 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15"/>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15"/>
     </row>
     <row r="16" spans="1:31">
       <c r="A16">
@@ -1501,20 +1501,18 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
@@ -1522,13 +1520,15 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16"/>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16"/>
     </row>
     <row r="17" spans="1:31">
       <c r="A17">
@@ -1573,20 +1573,18 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
@@ -1594,13 +1592,15 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17"/>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17"/>
     </row>
     <row r="18" spans="1:31">
       <c r="A18">
@@ -1645,20 +1645,18 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
@@ -1666,13 +1664,15 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18"/>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18"/>
     </row>
     <row r="19" spans="1:31">
       <c r="A19">
@@ -1717,20 +1717,18 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
@@ -1738,13 +1736,15 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19"/>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19"/>
     </row>
     <row r="20" spans="1:31">
       <c r="A20">
@@ -1789,20 +1789,18 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
@@ -1810,13 +1808,15 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20"/>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21">
@@ -1861,20 +1861,18 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
@@ -1882,13 +1880,15 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21"/>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21"/>
     </row>
     <row r="22" spans="1:31">
       <c r="A22">
@@ -1933,36 +1933,37 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U22" s="6">
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
         <v>21192</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>105960</v>
       </c>
       <c r="Z22" s="1">
         <v>105960</v>
       </c>
       <c r="AA22">
-        <v>0.0</v>
+        <v>105960</v>
       </c>
       <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
         <v>-25404.0</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AD22">
         <v>-1.1987542468856</v>
       </c>
-      <c r="AD22"/>
+      <c r="AE22"/>
     </row>
     <row r="23" spans="1:31">
       <c r="A23">
@@ -2007,36 +2008,37 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U23" s="6">
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
         <v>21192</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>105960</v>
       </c>
       <c r="Z23" s="1">
         <v>105960</v>
       </c>
       <c r="AA23">
-        <v>0.0</v>
+        <v>105960</v>
       </c>
       <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
         <v>-25404.0</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AD23">
         <v>-1.1987542468856</v>
       </c>
-      <c r="AD23"/>
+      <c r="AE23"/>
     </row>
     <row r="24" spans="1:31">
       <c r="A24">
@@ -2081,36 +2083,37 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U24" s="6">
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
         <v>21192</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>105960</v>
       </c>
       <c r="Z24" s="1">
         <v>105960</v>
       </c>
       <c r="AA24">
-        <v>0.0</v>
+        <v>105960</v>
       </c>
       <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
         <v>-25404.0</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AD24">
         <v>-1.1987542468856</v>
       </c>
-      <c r="AD24"/>
+      <c r="AE24"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25">
@@ -2155,36 +2158,37 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U25" s="6">
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
         <v>21192</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>105960</v>
       </c>
       <c r="Z25" s="1">
         <v>105960</v>
       </c>
       <c r="AA25">
-        <v>0.0</v>
+        <v>105960</v>
       </c>
       <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
         <v>-25404.0</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AD25">
         <v>-1.1987542468856</v>
       </c>
-      <c r="AD25"/>
+      <c r="AE25"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26">
@@ -2229,36 +2233,37 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U26" s="6">
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
         <v>21192</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>105960</v>
       </c>
       <c r="Z26" s="1">
         <v>105960</v>
       </c>
       <c r="AA26">
-        <v>0.0</v>
+        <v>105960</v>
       </c>
       <c r="AB26">
+        <v>0.0</v>
+      </c>
+      <c r="AC26">
         <v>-25404.0</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AD26">
         <v>-1.1987542468856</v>
       </c>
-      <c r="AD26"/>
+      <c r="AE26"/>
     </row>
     <row r="27" spans="1:31">
       <c r="A27">
@@ -2303,36 +2308,37 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U27" s="6">
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
         <v>21192</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>105960</v>
       </c>
       <c r="Z27" s="1">
         <v>105960</v>
       </c>
       <c r="AA27">
-        <v>0.0</v>
+        <v>105960</v>
       </c>
       <c r="AB27">
+        <v>0.0</v>
+      </c>
+      <c r="AC27">
         <v>-25404.0</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AD27">
         <v>-1.1987542468856</v>
       </c>
-      <c r="AD27"/>
+      <c r="AE27"/>
     </row>
     <row r="28" spans="1:31">
       <c r="A28">
@@ -2377,36 +2383,37 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U28" s="6">
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>78600</v>
       </c>
       <c r="Z28" s="1">
         <v>78600</v>
       </c>
       <c r="AA28">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB28">
+        <v>0.0</v>
+      </c>
+      <c r="AC28">
         <v>-28140.0</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AD28">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD28"/>
+      <c r="AE28"/>
     </row>
     <row r="29" spans="1:31">
       <c r="A29">
@@ -2451,36 +2458,37 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U29" s="6">
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>78600</v>
       </c>
       <c r="Z29" s="1">
         <v>78600</v>
       </c>
       <c r="AA29">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB29">
+        <v>0.0</v>
+      </c>
+      <c r="AC29">
         <v>-28140.0</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AD29">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD29"/>
+      <c r="AE29"/>
     </row>
     <row r="30" spans="1:31">
       <c r="A30">
@@ -2525,36 +2533,37 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U30" s="6">
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>78600</v>
       </c>
       <c r="Z30" s="1">
         <v>78600</v>
       </c>
       <c r="AA30">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB30">
+        <v>0.0</v>
+      </c>
+      <c r="AC30">
         <v>-28140.0</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AD30">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD30"/>
+      <c r="AE30"/>
     </row>
     <row r="31" spans="1:31">
       <c r="A31">
@@ -2599,36 +2608,37 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U31" s="6">
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>78600</v>
       </c>
       <c r="Z31" s="1">
         <v>78600</v>
       </c>
       <c r="AA31">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB31">
+        <v>0.0</v>
+      </c>
+      <c r="AC31">
         <v>-28140.0</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AD31">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD31"/>
+      <c r="AE31"/>
     </row>
     <row r="32" spans="1:31">
       <c r="A32">
@@ -2673,36 +2683,37 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U32" s="6">
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>78600</v>
       </c>
       <c r="Z32" s="1">
         <v>78600</v>
       </c>
       <c r="AA32">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB32">
+        <v>0.0</v>
+      </c>
+      <c r="AC32">
         <v>-28140.0</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AD32">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD32"/>
+      <c r="AE32"/>
     </row>
     <row r="33" spans="1:31">
       <c r="A33">
@@ -2747,36 +2758,37 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U33" s="6">
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>78600</v>
       </c>
       <c r="Z33" s="1">
         <v>78600</v>
       </c>
       <c r="AA33">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB33">
+        <v>0.0</v>
+      </c>
+      <c r="AC33">
         <v>-28140.0</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AD33">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD33"/>
+      <c r="AE33"/>
     </row>
     <row r="34" spans="1:31">
       <c r="A34">
@@ -2821,36 +2833,37 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U34" s="6">
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>78600</v>
       </c>
       <c r="Z34" s="1">
         <v>78600</v>
       </c>
       <c r="AA34">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB34">
+        <v>0.0</v>
+      </c>
+      <c r="AC34">
         <v>-28140.0</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AD34">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD34"/>
+      <c r="AE34"/>
     </row>
     <row r="35" spans="1:31">
       <c r="A35">
@@ -2895,36 +2908,37 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U35" s="6">
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>78600</v>
       </c>
       <c r="Z35" s="1">
         <v>78600</v>
       </c>
       <c r="AA35">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB35">
+        <v>0.0</v>
+      </c>
+      <c r="AC35">
         <v>-28140.0</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AD35">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD35"/>
+      <c r="AE35"/>
     </row>
     <row r="36" spans="1:31">
       <c r="A36">
@@ -2969,36 +2983,37 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U36" s="6">
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>78600</v>
       </c>
       <c r="Z36" s="1">
         <v>78600</v>
       </c>
       <c r="AA36">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB36">
+        <v>0.0</v>
+      </c>
+      <c r="AC36">
         <v>-28140.0</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AD36">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD36"/>
+      <c r="AE36"/>
     </row>
     <row r="37" spans="1:31">
       <c r="A37">
@@ -3043,36 +3058,37 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U37" s="6">
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>78600</v>
       </c>
       <c r="Z37" s="1">
         <v>78600</v>
       </c>
       <c r="AA37">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB37">
+        <v>0.0</v>
+      </c>
+      <c r="AC37">
         <v>-28140.0</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AD37">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD37"/>
+      <c r="AE37"/>
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="7">
@@ -3117,36 +3133,37 @@
       <c r="R38" s="8">
         <v>0</v>
       </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U38" s="8">
+      <c r="S38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8">
         <v>-28140.0</v>
       </c>
-      <c r="V38" s="8">
-        <v>0</v>
-      </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
+      <c r="W38" s="8">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8">
         <v>15720</v>
-      </c>
-      <c r="Y38" s="8">
-        <v>78600</v>
       </c>
       <c r="Z38" s="8">
         <v>78600</v>
       </c>
       <c r="AA38" s="7">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-28140.0</v>
       </c>
-      <c r="AC38" s="9">
+      <c r="AD38" s="7">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD38" s="7"/>
+      <c r="AE38"/>
     </row>
     <row r="39" spans="1:31">
       <c r="A39">
@@ -3191,36 +3208,37 @@
       <c r="R39" s="1">
         <v>0</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U39" s="6">
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>78600</v>
       </c>
       <c r="Z39" s="1">
         <v>78600</v>
       </c>
       <c r="AA39">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-28140.0</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AD39">
         <v>-1.7900763358779</v>
       </c>
-      <c r="AD39"/>
+      <c r="AE39"/>
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="10">
@@ -3265,20 +3283,18 @@
       <c r="R40" s="11">
         <v>0</v>
       </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="U40" s="11">
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11">
         <v>-36000.0</v>
       </c>
-      <c r="V40" s="11">
-        <v>0</v>
-      </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
@@ -3286,13 +3302,16 @@
         <v>0</v>
       </c>
       <c r="AA40" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-36000.0</v>
       </c>
-      <c r="AC40" s="12"/>
       <c r="AD40" s="10"/>
+      <c r="AE40"/>
     </row>
     <row r="41" spans="1:31">
       <c r="A41">
@@ -3337,20 +3356,18 @@
       <c r="R41" s="1">
         <v>0</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U41" s="6">
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="1">
         <v>-36000.0</v>
       </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
@@ -3358,13 +3375,15 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-36000.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41"/>
+      <c r="AE41"/>
     </row>
     <row r="42" spans="1:31">
       <c r="A42">
@@ -3409,20 +3428,18 @@
       <c r="R42" s="1">
         <v>0</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U42" s="6">
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="1">
         <v>-36000.0</v>
       </c>
-      <c r="V42" s="1">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
@@ -3430,13 +3447,15 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-36000.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42"/>
+      <c r="AE42"/>
     </row>
     <row r="43" spans="1:31">
       <c r="A43">
@@ -3481,20 +3500,18 @@
       <c r="R43" s="1">
         <v>0</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U43" s="6">
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="1">
         <v>-36000.0</v>
       </c>
-      <c r="V43" s="1">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
@@ -3502,13 +3519,15 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-36000.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43"/>
+      <c r="AE43"/>
     </row>
     <row r="44" spans="1:31">
       <c r="A44">
@@ -3553,20 +3572,18 @@
       <c r="R44" s="1">
         <v>0</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U44" s="6">
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="1">
         <v>-36000.0</v>
       </c>
-      <c r="V44" s="1">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
@@ -3574,13 +3591,15 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-36000.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44"/>
+      <c r="AE44"/>
     </row>
     <row r="45" spans="1:31">
       <c r="A45">
@@ -3625,20 +3644,18 @@
       <c r="R45" s="1">
         <v>0</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="6"/>
       <c r="V45" s="1">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
@@ -3646,13 +3663,15 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB45">
         <v>0.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45"/>
+      <c r="AC45">
+        <v>0.0</v>
+      </c>
+      <c r="AE45"/>
     </row>
     <row r="46" spans="1:31">
       <c r="A46">
@@ -3697,20 +3716,18 @@
       <c r="R46" s="1">
         <v>0</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="6"/>
       <c r="V46" s="1">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
@@ -3718,13 +3735,15 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB46">
         <v>0.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46"/>
+      <c r="AC46">
+        <v>0.0</v>
+      </c>
+      <c r="AE46"/>
     </row>
     <row r="47" spans="1:31">
       <c r="A47">
@@ -3769,20 +3788,18 @@
       <c r="R47" s="1">
         <v>0</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="6"/>
       <c r="V47" s="1">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
@@ -3790,13 +3807,15 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <v>0.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47"/>
+      <c r="AC47">
+        <v>0.0</v>
+      </c>
+      <c r="AE47"/>
     </row>
     <row r="48" spans="1:31">
       <c r="A48">
@@ -3841,20 +3860,18 @@
       <c r="R48" s="1">
         <v>0</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="6"/>
       <c r="V48" s="1">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
@@ -3862,13 +3879,15 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <v>0.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48"/>
+      <c r="AC48">
+        <v>0.0</v>
+      </c>
+      <c r="AE48"/>
     </row>
     <row r="49" spans="1:31">
       <c r="A49">
@@ -3913,20 +3932,18 @@
       <c r="R49" s="1">
         <v>0</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="6"/>
       <c r="V49" s="1">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
@@ -3934,13 +3951,15 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49"/>
+      <c r="AC49">
+        <v>0.0</v>
+      </c>
+      <c r="AE49"/>
     </row>
     <row r="50" spans="1:31">
       <c r="A50">
@@ -3985,20 +4004,18 @@
       <c r="R50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="6"/>
       <c r="V50" s="1">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
@@ -4006,13 +4023,15 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <v>0.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50"/>
+      <c r="AC50">
+        <v>0.0</v>
+      </c>
+      <c r="AE50"/>
     </row>
     <row r="51" spans="1:31">
       <c r="A51">
@@ -4057,20 +4076,18 @@
       <c r="R51" s="1">
         <v>0</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="6"/>
       <c r="V51" s="1">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
@@ -4078,13 +4095,15 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB51">
         <v>0.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51"/>
+      <c r="AC51">
+        <v>0.0</v>
+      </c>
+      <c r="AE51"/>
     </row>
     <row r="52" spans="1:31">
       <c r="A52">
@@ -4129,20 +4148,18 @@
       <c r="R52" s="1">
         <v>0</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U52" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="6"/>
       <c r="V52" s="1">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
@@ -4150,13 +4167,15 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB52">
         <v>0.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52"/>
+      <c r="AC52">
+        <v>0.0</v>
+      </c>
+      <c r="AE52"/>
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3">
@@ -4201,20 +4220,18 @@
       <c r="R53" s="13">
         <v>0</v>
       </c>
-      <c r="S53" s="14"/>
-      <c r="T53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U53" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S53" s="13">
+        <v>0</v>
+      </c>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
       <c r="V53" s="13">
-        <v>0</v>
-      </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W53" s="13">
+        <v>0</v>
+      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
@@ -4222,13 +4239,16 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC53" s="14"/>
+      <c r="AC53" s="3">
+        <v>0.0</v>
+      </c>
       <c r="AD53" s="3"/>
+      <c r="AE53"/>
     </row>
     <row r="54" spans="1:31">
       <c r="A54">
@@ -4273,20 +4293,18 @@
       <c r="R54" s="1">
         <v>0</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U54" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="6"/>
       <c r="V54" s="1">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
@@ -4294,13 +4312,15 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB54">
         <v>0.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54"/>
+      <c r="AC54">
+        <v>0.0</v>
+      </c>
+      <c r="AE54"/>
     </row>
     <row r="55" spans="1:31">
       <c r="A55">
@@ -4345,20 +4365,18 @@
       <c r="R55" s="1">
         <v>0</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U55" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="6"/>
       <c r="V55" s="1">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
@@ -4366,13 +4384,15 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB55">
         <v>0.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55"/>
+      <c r="AC55">
+        <v>0.0</v>
+      </c>
+      <c r="AE55"/>
     </row>
     <row r="56" spans="1:31">
       <c r="A56">
@@ -4417,20 +4437,18 @@
       <c r="R56" s="1">
         <v>0</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U56" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="6"/>
       <c r="V56" s="1">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
@@ -4438,13 +4456,15 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB56">
         <v>0.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56"/>
+      <c r="AC56">
+        <v>0.0</v>
+      </c>
+      <c r="AE56"/>
     </row>
     <row r="57" spans="1:31">
       <c r="A57" s="3">
@@ -4489,20 +4509,18 @@
       <c r="R57" s="13">
         <v>0</v>
       </c>
-      <c r="S57" s="14"/>
-      <c r="T57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U57" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S57" s="13">
+        <v>0</v>
+      </c>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
       <c r="V57" s="13">
-        <v>0</v>
-      </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W57" s="13">
+        <v>0</v>
+      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
@@ -4510,13 +4528,16 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC57" s="14"/>
+      <c r="AC57" s="3">
+        <v>0.0</v>
+      </c>
       <c r="AD57" s="3"/>
+      <c r="AE57"/>
     </row>
     <row r="58" spans="1:31">
       <c r="A58">
@@ -4561,20 +4582,18 @@
       <c r="R58" s="1">
         <v>0</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U58" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="6"/>
       <c r="V58" s="1">
-        <v>0</v>
-      </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
@@ -4582,13 +4601,15 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB58">
         <v>0.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58"/>
+      <c r="AC58">
+        <v>0.0</v>
+      </c>
+      <c r="AE58"/>
     </row>
     <row r="59" spans="1:31">
       <c r="A59">
@@ -4633,20 +4654,18 @@
       <c r="R59" s="1">
         <v>0</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U59" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="6"/>
       <c r="V59" s="1">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
@@ -4654,13 +4673,15 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>0.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59"/>
+      <c r="AC59">
+        <v>0.0</v>
+      </c>
+      <c r="AE59"/>
     </row>
     <row r="60" spans="1:31">
       <c r="A60">
@@ -4705,20 +4726,18 @@
       <c r="R60" s="1">
         <v>0</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U60" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="6"/>
       <c r="V60" s="1">
-        <v>0</v>
-      </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
@@ -4726,13 +4745,15 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB60">
         <v>0.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60"/>
+      <c r="AC60">
+        <v>0.0</v>
+      </c>
+      <c r="AE60"/>
     </row>
     <row r="61" spans="1:31">
       <c r="A61">
@@ -4777,20 +4798,18 @@
       <c r="R61" s="1">
         <v>0</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U61" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="6"/>
       <c r="V61" s="1">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
@@ -4798,13 +4817,15 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB61">
         <v>0.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61"/>
+      <c r="AC61">
+        <v>0.0</v>
+      </c>
+      <c r="AE61"/>
     </row>
     <row r="62" spans="1:31">
       <c r="A62">
@@ -4849,20 +4870,18 @@
       <c r="R62" s="1">
         <v>0</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U62" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="U62" s="6"/>
       <c r="V62" s="1">
-        <v>0</v>
-      </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
@@ -4870,13 +4889,15 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <v>0.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62"/>
+      <c r="AC62">
+        <v>0.0</v>
+      </c>
+      <c r="AE62"/>
     </row>
     <row r="63" spans="1:31">
       <c r="A63">
@@ -4921,20 +4942,18 @@
       <c r="R63" s="1">
         <v>0</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U63" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="6"/>
       <c r="V63" s="1">
-        <v>0</v>
-      </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
@@ -4942,13 +4961,15 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB63">
         <v>0.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63"/>
+      <c r="AC63">
+        <v>0.0</v>
+      </c>
+      <c r="AE63"/>
     </row>
     <row r="64" spans="1:31">
       <c r="A64">
@@ -4993,20 +5014,18 @@
       <c r="R64" s="1">
         <v>0</v>
       </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U64" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="6"/>
       <c r="V64" s="1">
-        <v>0</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
@@ -5014,13 +5033,15 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB64">
         <v>0.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64"/>
+      <c r="AC64">
+        <v>0.0</v>
+      </c>
+      <c r="AE64"/>
     </row>
     <row r="65" spans="1:31">
       <c r="A65">
@@ -5065,20 +5086,18 @@
       <c r="R65" s="1">
         <v>0</v>
       </c>
-      <c r="S65" s="2"/>
-      <c r="T65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U65" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="6"/>
       <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
@@ -5086,13 +5105,15 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB65">
         <v>0.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65"/>
+      <c r="AC65">
+        <v>0.0</v>
+      </c>
+      <c r="AE65"/>
     </row>
     <row r="66" spans="1:31">
       <c r="A66">
@@ -5137,20 +5158,18 @@
       <c r="R66" s="1">
         <v>0</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U66" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1"/>
+      <c r="U66" s="6"/>
       <c r="V66" s="1">
-        <v>0</v>
-      </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
@@ -5158,13 +5177,15 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB66">
         <v>0.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66"/>
+      <c r="AC66">
+        <v>0.0</v>
+      </c>
+      <c r="AE66"/>
     </row>
     <row r="67" spans="1:31">
       <c r="A67">
@@ -5209,20 +5230,18 @@
       <c r="R67" s="1">
         <v>0</v>
       </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U67" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1"/>
+      <c r="U67" s="6"/>
       <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
@@ -5230,13 +5249,15 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB67">
         <v>0.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67"/>
+      <c r="AC67">
+        <v>0.0</v>
+      </c>
+      <c r="AE67"/>
     </row>
     <row r="68" spans="1:31">
       <c r="A68">
@@ -5281,20 +5302,18 @@
       <c r="R68" s="1">
         <v>0</v>
       </c>
-      <c r="S68" s="2"/>
-      <c r="T68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="6"/>
       <c r="V68" s="1">
-        <v>0</v>
-      </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
@@ -5302,13 +5321,15 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB68">
         <v>0.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68"/>
+      <c r="AC68">
+        <v>0.0</v>
+      </c>
+      <c r="AE68"/>
     </row>
     <row r="69" spans="1:31">
       <c r="A69">
@@ -5353,20 +5374,18 @@
       <c r="R69" s="1">
         <v>0</v>
       </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U69" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1"/>
+      <c r="U69" s="6"/>
       <c r="V69" s="1">
-        <v>0</v>
-      </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
@@ -5374,13 +5393,15 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB69">
         <v>0.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69"/>
+      <c r="AC69">
+        <v>0.0</v>
+      </c>
+      <c r="AE69"/>
     </row>
     <row r="70" spans="1:31">
       <c r="A70">
@@ -5425,20 +5446,18 @@
       <c r="R70" s="1">
         <v>0</v>
       </c>
-      <c r="S70" s="2"/>
-      <c r="T70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U70" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="6"/>
       <c r="V70" s="1">
-        <v>0</v>
-      </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
@@ -5446,13 +5465,15 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB70">
         <v>0.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70"/>
+      <c r="AC70">
+        <v>0.0</v>
+      </c>
+      <c r="AE70"/>
     </row>
     <row r="71" spans="1:31">
       <c r="A71">
@@ -5497,20 +5518,18 @@
       <c r="R71" s="1">
         <v>0</v>
       </c>
-      <c r="S71" s="2"/>
-      <c r="T71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U71" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="6"/>
       <c r="V71" s="1">
-        <v>0</v>
-      </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
@@ -5518,13 +5537,15 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB71">
         <v>0.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71"/>
+      <c r="AC71">
+        <v>0.0</v>
+      </c>
+      <c r="AE71"/>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" s="15">
@@ -5569,20 +5590,18 @@
       <c r="R72" s="5">
         <v>0</v>
       </c>
-      <c r="S72" s="16"/>
-      <c r="T72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="U72" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="S72" s="5">
+        <v>0</v>
+      </c>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
       <c r="V72" s="5">
-        <v>0</v>
-      </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W72" s="5">
+        <v>0</v>
+      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
@@ -5590,13 +5609,16 @@
         <v>0</v>
       </c>
       <c r="AA72" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="15">
         <v>0.0</v>
       </c>
-      <c r="AC72" s="16"/>
+      <c r="AC72" s="15">
+        <v>0.0</v>
+      </c>
       <c r="AD72" s="15"/>
+      <c r="AE72"/>
     </row>
     <row r="73" spans="1:31">
       <c r="B73" s="1"/>
@@ -5616,15 +5638,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -5644,15 +5665,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -5672,15 +5692,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -5700,15 +5719,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -5728,15 +5746,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -5756,15 +5773,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -5784,15 +5800,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -5812,15 +5827,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -5869,19 +5883,19 @@
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -5889,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -5901,7 +5915,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -5913,7 +5927,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -5923,10 +5937,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5989,10 +6003,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -6021,7 +6035,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -6062,33 +6078,35 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6">
-        <v>0.0</v>
-      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6"/>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" t="s">
-        <v>42</v>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -6130,33 +6148,35 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
       <c r="U7" s="6">
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7">
-        <v>0.0</v>
-      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7"/>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" t="s">
-        <v>42</v>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6198,33 +6218,35 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="6">
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8">
-        <v>0.0</v>
-      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8"/>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" t="s">
-        <v>42</v>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6266,33 +6288,35 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
       <c r="U9" s="6">
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9">
-        <v>0.0</v>
-      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" t="s">
-        <v>42</v>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6334,33 +6358,35 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
       <c r="U10" s="6">
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10">
-        <v>0.0</v>
-      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10"/>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10" t="s">
-        <v>42</v>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6402,33 +6428,35 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="6">
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11">
-        <v>0.0</v>
-      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11"/>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" t="s">
-        <v>42</v>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6470,33 +6498,35 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="6">
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12">
-        <v>0.0</v>
-      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12"/>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" t="s">
-        <v>42</v>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6538,33 +6568,35 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
       <c r="U13" s="6">
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13">
-        <v>0.0</v>
-      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13"/>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" t="s">
-        <v>42</v>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6606,33 +6638,35 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="6">
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14">
-        <v>0.0</v>
-      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14"/>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" t="s">
-        <v>42</v>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6674,33 +6708,35 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="6">
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15">
-        <v>0.0</v>
-      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15"/>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" t="s">
-        <v>42</v>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6742,33 +6778,35 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="6">
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16">
-        <v>0.0</v>
-      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16"/>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" t="s">
-        <v>42</v>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6810,33 +6848,35 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
       <c r="U17" s="6">
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17">
-        <v>0.0</v>
-      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17"/>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" t="s">
-        <v>42</v>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -6878,33 +6918,35 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="6">
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18">
-        <v>0.0</v>
-      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18"/>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" t="s">
-        <v>42</v>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -6946,33 +6988,35 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
       <c r="U19" s="6">
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19">
-        <v>0.0</v>
-      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19"/>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19" t="s">
-        <v>42</v>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -7014,33 +7058,35 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
       <c r="U20" s="6">
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20">
-        <v>0.0</v>
-      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20"/>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" t="s">
-        <v>42</v>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7082,33 +7128,35 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
       <c r="U21" s="6">
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21">
-        <v>0.0</v>
-      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21" t="s">
-        <v>42</v>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7150,33 +7198,35 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
       <c r="U22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V22" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
         <v>21192</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>105960</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22">
-        <v>0.0</v>
-      </c>
+      <c r="AA22"/>
       <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
         <v>-25404.0</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" t="s">
-        <v>43</v>
+      <c r="AE22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -7218,33 +7268,35 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
       <c r="U23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V23" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
         <v>21192</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>105960</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23">
-        <v>0.0</v>
-      </c>
+      <c r="AA23"/>
       <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
         <v>-25404.0</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" t="s">
-        <v>44</v>
+      <c r="AE23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -7286,33 +7338,35 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V24" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
         <v>21192</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>105960</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24">
-        <v>0.0</v>
-      </c>
+      <c r="AA24"/>
       <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
         <v>-25404.0</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" t="s">
-        <v>44</v>
+      <c r="AE24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -7354,33 +7408,35 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
       <c r="U25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V25" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
         <v>21192</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>105960</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25">
-        <v>0.0</v>
-      </c>
+      <c r="AA25"/>
       <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
         <v>-25404.0</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" t="s">
-        <v>44</v>
+      <c r="AE25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -7422,33 +7478,35 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
       <c r="U26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V26" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
         <v>21192</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>105960</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26">
-        <v>0.0</v>
-      </c>
+      <c r="AA26"/>
       <c r="AB26">
+        <v>0.0</v>
+      </c>
+      <c r="AC26">
         <v>-25404.0</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" t="s">
-        <v>44</v>
+      <c r="AE26" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -7490,33 +7548,35 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
       <c r="U27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
         <v>21192</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Z27" s="1">
         <v>105960</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27">
-        <v>0.0</v>
-      </c>
+      <c r="AA27"/>
       <c r="AB27">
+        <v>0.0</v>
+      </c>
+      <c r="AC27">
         <v>-25404.0</v>
       </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27" t="s">
-        <v>44</v>
+      <c r="AE27" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -7558,33 +7618,35 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
       <c r="U28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V28" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
         <v>15720</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>78600</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28">
-        <v>0.0</v>
-      </c>
+      <c r="AA28"/>
       <c r="AB28">
+        <v>0.0</v>
+      </c>
+      <c r="AC28">
         <v>-28140.0</v>
       </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" t="s">
-        <v>45</v>
+      <c r="AE28" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -7626,33 +7688,35 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V29" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
         <v>15720</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Z29" s="1">
         <v>78600</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29">
-        <v>0.0</v>
-      </c>
+      <c r="AA29"/>
       <c r="AB29">
+        <v>0.0</v>
+      </c>
+      <c r="AC29">
         <v>-28140.0</v>
       </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29" t="s">
-        <v>44</v>
+      <c r="AE29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7694,33 +7758,35 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V30" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
         <v>15720</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Z30" s="1">
         <v>78600</v>
       </c>
-      <c r="Z30" s="1"/>
-      <c r="AA30">
-        <v>0.0</v>
-      </c>
+      <c r="AA30"/>
       <c r="AB30">
+        <v>0.0</v>
+      </c>
+      <c r="AC30">
         <v>-28140.0</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" t="s">
-        <v>44</v>
+      <c r="AE30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7762,33 +7828,35 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
         <v>15720</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Z31" s="1">
         <v>78600</v>
       </c>
-      <c r="Z31" s="1"/>
-      <c r="AA31">
-        <v>0.0</v>
-      </c>
+      <c r="AA31"/>
       <c r="AB31">
+        <v>0.0</v>
+      </c>
+      <c r="AC31">
         <v>-28140.0</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" t="s">
-        <v>44</v>
+      <c r="AE31" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -7830,33 +7898,35 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V32" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
         <v>15720</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Z32" s="1">
         <v>78600</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32">
-        <v>0.0</v>
-      </c>
+      <c r="AA32"/>
       <c r="AB32">
+        <v>0.0</v>
+      </c>
+      <c r="AC32">
         <v>-28140.0</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" t="s">
-        <v>44</v>
+      <c r="AE32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -7898,33 +7968,35 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
       <c r="U33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V33" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
         <v>15720</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Z33" s="1">
         <v>78600</v>
       </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33">
-        <v>0.0</v>
-      </c>
+      <c r="AA33"/>
       <c r="AB33">
+        <v>0.0</v>
+      </c>
+      <c r="AC33">
         <v>-28140.0</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" t="s">
-        <v>44</v>
+      <c r="AE33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -7966,33 +8038,35 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
       <c r="U34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V34" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
         <v>15720</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Z34" s="1">
         <v>78600</v>
       </c>
-      <c r="Z34" s="1"/>
-      <c r="AA34">
-        <v>0.0</v>
-      </c>
+      <c r="AA34"/>
       <c r="AB34">
+        <v>0.0</v>
+      </c>
+      <c r="AC34">
         <v>-28140.0</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" t="s">
-        <v>44</v>
+      <c r="AE34" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8034,33 +8108,35 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V35" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
         <v>15720</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Z35" s="1">
         <v>78600</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35">
-        <v>0.0</v>
-      </c>
+      <c r="AA35"/>
       <c r="AB35">
+        <v>0.0</v>
+      </c>
+      <c r="AC35">
         <v>-28140.0</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35" t="s">
-        <v>44</v>
+      <c r="AE35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8102,33 +8178,35 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
       <c r="U36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V36" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
         <v>15720</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Z36" s="1">
         <v>78600</v>
       </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36">
-        <v>0.0</v>
-      </c>
+      <c r="AA36"/>
       <c r="AB36">
+        <v>0.0</v>
+      </c>
+      <c r="AC36">
         <v>-28140.0</v>
       </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36" t="s">
-        <v>44</v>
+      <c r="AE36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8170,33 +8248,35 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
       <c r="U37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V37" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
         <v>15720</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Z37" s="1">
         <v>78600</v>
       </c>
-      <c r="Z37" s="1"/>
-      <c r="AA37">
-        <v>0.0</v>
-      </c>
+      <c r="AA37"/>
       <c r="AB37">
+        <v>0.0</v>
+      </c>
+      <c r="AC37">
         <v>-28140.0</v>
       </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37" t="s">
-        <v>44</v>
+      <c r="AE37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8238,33 +8318,36 @@
       <c r="R38" s="8">
         <v>0</v>
       </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="S38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="8"/>
       <c r="U38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="V38" s="8">
         <v>-28140.0</v>
       </c>
-      <c r="V38" s="8">
-        <v>0</v>
-      </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
+      <c r="W38" s="8">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8">
         <v>15720</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Z38" s="8">
         <v>78600</v>
       </c>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="7">
-        <v>0.0</v>
-      </c>
+      <c r="AA38" s="7"/>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-28140.0</v>
       </c>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="7" t="s">
-        <v>44</v>
+      <c r="AD38" s="7"/>
+      <c r="AE38" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8306,33 +8389,35 @@
       <c r="R39" s="1">
         <v>0</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1"/>
       <c r="U39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V39" s="1">
         <v>-28140.0</v>
       </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1">
         <v>15720</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Z39" s="1">
         <v>78600</v>
       </c>
-      <c r="Z39" s="1"/>
-      <c r="AA39">
-        <v>0.0</v>
-      </c>
+      <c r="AA39"/>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-28140.0</v>
       </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39" t="s">
-        <v>45</v>
+      <c r="AE39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8374,33 +8459,36 @@
       <c r="R40" s="11">
         <v>0</v>
       </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11"/>
       <c r="U40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="V40" s="11">
         <v>-36000.0</v>
       </c>
-      <c r="V40" s="11">
-        <v>0</v>
-      </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="10">
-        <v>0.0</v>
-      </c>
+      <c r="Z40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="10"/>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-36000.0</v>
       </c>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="10" t="s">
-        <v>44</v>
+      <c r="AD40" s="10"/>
+      <c r="AE40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8442,33 +8530,35 @@
       <c r="R41" s="1">
         <v>0</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1"/>
       <c r="U41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V41" s="1">
         <v>-36000.0</v>
       </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
-      <c r="Z41" s="1"/>
-      <c r="AA41">
-        <v>0.0</v>
-      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41"/>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-36000.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" t="s">
-        <v>44</v>
+      <c r="AE41" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8510,33 +8600,35 @@
       <c r="R42" s="1">
         <v>0</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1"/>
       <c r="U42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V42" s="1">
         <v>-36000.0</v>
       </c>
-      <c r="V42" s="1">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AA42">
-        <v>0.0</v>
-      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42"/>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-36000.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42" t="s">
-        <v>44</v>
+      <c r="AE42" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8578,33 +8670,35 @@
       <c r="R43" s="1">
         <v>0</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1"/>
       <c r="U43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V43" s="1">
         <v>-36000.0</v>
       </c>
-      <c r="V43" s="1">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
-      <c r="Z43" s="1"/>
-      <c r="AA43">
-        <v>0.0</v>
-      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43"/>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-36000.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43" t="s">
-        <v>44</v>
+      <c r="AE43" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8646,33 +8740,35 @@
       <c r="R44" s="1">
         <v>0</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1"/>
       <c r="U44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V44" s="1">
         <v>-36000.0</v>
       </c>
-      <c r="V44" s="1">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
-      <c r="Z44" s="1"/>
-      <c r="AA44">
-        <v>0.0</v>
-      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44"/>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-36000.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44" t="s">
-        <v>46</v>
+      <c r="AE44" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8714,33 +8810,35 @@
       <c r="R45" s="1">
         <v>0</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1"/>
       <c r="U45" s="6">
         <v>0.0</v>
       </c>
       <c r="V45" s="1">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
-      <c r="Z45" s="1"/>
-      <c r="AA45">
-        <v>0.0</v>
-      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45"/>
       <c r="AB45">
         <v>0.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45" t="s">
-        <v>42</v>
+      <c r="AC45">
+        <v>0.0</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8782,33 +8880,35 @@
       <c r="R46" s="1">
         <v>0</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1"/>
       <c r="U46" s="6">
         <v>0.0</v>
       </c>
       <c r="V46" s="1">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
-      <c r="Z46" s="1"/>
-      <c r="AA46">
-        <v>0.0</v>
-      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46"/>
       <c r="AB46">
         <v>0.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46" t="s">
-        <v>42</v>
+      <c r="AC46">
+        <v>0.0</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -8850,33 +8950,35 @@
       <c r="R47" s="1">
         <v>0</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1"/>
       <c r="U47" s="6">
         <v>0.0</v>
       </c>
       <c r="V47" s="1">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
-      <c r="Z47" s="1"/>
-      <c r="AA47">
-        <v>0.0</v>
-      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47"/>
       <c r="AB47">
         <v>0.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47" t="s">
-        <v>42</v>
+      <c r="AC47">
+        <v>0.0</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -8918,33 +9020,35 @@
       <c r="R48" s="1">
         <v>0</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1"/>
       <c r="U48" s="6">
         <v>0.0</v>
       </c>
       <c r="V48" s="1">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
-      <c r="Z48" s="1"/>
-      <c r="AA48">
-        <v>0.0</v>
-      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48"/>
       <c r="AB48">
         <v>0.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48" t="s">
-        <v>42</v>
+      <c r="AC48">
+        <v>0.0</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -8986,33 +9090,35 @@
       <c r="R49" s="1">
         <v>0</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1"/>
       <c r="U49" s="6">
         <v>0.0</v>
       </c>
       <c r="V49" s="1">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
-      <c r="Z49" s="1"/>
-      <c r="AA49">
-        <v>0.0</v>
-      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49"/>
       <c r="AB49">
         <v>0.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49" t="s">
-        <v>42</v>
+      <c r="AC49">
+        <v>0.0</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9054,33 +9160,35 @@
       <c r="R50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1"/>
       <c r="U50" s="6">
         <v>0.0</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
-      <c r="Z50" s="1"/>
-      <c r="AA50">
-        <v>0.0</v>
-      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50"/>
       <c r="AB50">
         <v>0.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50" t="s">
-        <v>42</v>
+      <c r="AC50">
+        <v>0.0</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9122,33 +9230,35 @@
       <c r="R51" s="1">
         <v>0</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1"/>
       <c r="U51" s="6">
         <v>0.0</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
-      <c r="Z51" s="1"/>
-      <c r="AA51">
-        <v>0.0</v>
-      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51"/>
       <c r="AB51">
         <v>0.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51" t="s">
-        <v>42</v>
+      <c r="AC51">
+        <v>0.0</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9190,33 +9300,35 @@
       <c r="R52" s="1">
         <v>0</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1"/>
       <c r="U52" s="6">
         <v>0.0</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
-      <c r="Z52" s="1"/>
-      <c r="AA52">
-        <v>0.0</v>
-      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52"/>
       <c r="AB52">
         <v>0.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52" t="s">
-        <v>42</v>
+      <c r="AC52">
+        <v>0.0</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9258,33 +9370,36 @@
       <c r="R53" s="13">
         <v>0</v>
       </c>
-      <c r="S53" s="14"/>
-      <c r="T53" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S53" s="13">
+        <v>0</v>
+      </c>
+      <c r="T53" s="13"/>
       <c r="U53" s="13">
         <v>0.0</v>
       </c>
       <c r="V53" s="13">
-        <v>0</v>
-      </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W53" s="13">
+        <v>0</v>
+      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3"/>
       <c r="AB53" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="3" t="s">
-        <v>42</v>
+      <c r="AC53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD53" s="3"/>
+      <c r="AE53" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9326,33 +9441,35 @@
       <c r="R54" s="1">
         <v>0</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1"/>
       <c r="U54" s="6">
         <v>0.0</v>
       </c>
       <c r="V54" s="1">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AA54">
-        <v>0.0</v>
-      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54"/>
       <c r="AB54">
         <v>0.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54" t="s">
-        <v>42</v>
+      <c r="AC54">
+        <v>0.0</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9394,33 +9511,35 @@
       <c r="R55" s="1">
         <v>0</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1"/>
       <c r="U55" s="6">
         <v>0.0</v>
       </c>
       <c r="V55" s="1">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
-      <c r="Z55" s="1"/>
-      <c r="AA55">
-        <v>0.0</v>
-      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55"/>
       <c r="AB55">
         <v>0.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55" t="s">
-        <v>42</v>
+      <c r="AC55">
+        <v>0.0</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9462,33 +9581,35 @@
       <c r="R56" s="1">
         <v>0</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1"/>
       <c r="U56" s="6">
         <v>0.0</v>
       </c>
       <c r="V56" s="1">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
-      <c r="Z56" s="1"/>
-      <c r="AA56">
-        <v>0.0</v>
-      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56"/>
       <c r="AB56">
         <v>0.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56" t="s">
-        <v>42</v>
+      <c r="AC56">
+        <v>0.0</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9530,33 +9651,36 @@
       <c r="R57" s="13">
         <v>0</v>
       </c>
-      <c r="S57" s="14"/>
-      <c r="T57" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S57" s="13">
+        <v>0</v>
+      </c>
+      <c r="T57" s="13"/>
       <c r="U57" s="13">
         <v>0.0</v>
       </c>
       <c r="V57" s="13">
-        <v>0</v>
-      </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W57" s="13">
+        <v>0</v>
+      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3"/>
       <c r="AB57" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="3" t="s">
-        <v>42</v>
+      <c r="AC57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD57" s="3"/>
+      <c r="AE57" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9598,33 +9722,35 @@
       <c r="R58" s="1">
         <v>0</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1"/>
       <c r="U58" s="6">
         <v>0.0</v>
       </c>
       <c r="V58" s="1">
-        <v>0</v>
-      </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
-      <c r="Z58" s="1"/>
-      <c r="AA58">
-        <v>0.0</v>
-      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58"/>
       <c r="AB58">
         <v>0.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58" t="s">
-        <v>42</v>
+      <c r="AC58">
+        <v>0.0</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9666,33 +9792,35 @@
       <c r="R59" s="1">
         <v>0</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1"/>
       <c r="U59" s="6">
         <v>0.0</v>
       </c>
       <c r="V59" s="1">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
-      <c r="Z59" s="1"/>
-      <c r="AA59">
-        <v>0.0</v>
-      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59"/>
       <c r="AB59">
         <v>0.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59" t="s">
-        <v>42</v>
+      <c r="AC59">
+        <v>0.0</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9734,33 +9862,35 @@
       <c r="R60" s="1">
         <v>0</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1"/>
       <c r="U60" s="6">
         <v>0.0</v>
       </c>
       <c r="V60" s="1">
-        <v>0</v>
-      </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
-      <c r="Z60" s="1"/>
-      <c r="AA60">
-        <v>0.0</v>
-      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60"/>
       <c r="AB60">
         <v>0.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" t="s">
-        <v>42</v>
+      <c r="AC60">
+        <v>0.0</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9802,33 +9932,35 @@
       <c r="R61" s="1">
         <v>0</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1"/>
       <c r="U61" s="6">
         <v>0.0</v>
       </c>
       <c r="V61" s="1">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
-      <c r="Z61" s="1"/>
-      <c r="AA61">
-        <v>0.0</v>
-      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61"/>
       <c r="AB61">
         <v>0.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61" t="s">
-        <v>42</v>
+      <c r="AC61">
+        <v>0.0</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -9870,33 +10002,35 @@
       <c r="R62" s="1">
         <v>0</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1"/>
       <c r="U62" s="6">
         <v>0.0</v>
       </c>
       <c r="V62" s="1">
-        <v>0</v>
-      </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
-      <c r="Z62" s="1"/>
-      <c r="AA62">
-        <v>0.0</v>
-      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62"/>
       <c r="AB62">
         <v>0.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62" t="s">
-        <v>42</v>
+      <c r="AC62">
+        <v>0.0</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -9938,33 +10072,35 @@
       <c r="R63" s="1">
         <v>0</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1"/>
       <c r="U63" s="6">
         <v>0.0</v>
       </c>
       <c r="V63" s="1">
-        <v>0</v>
-      </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
-      <c r="Z63" s="1"/>
-      <c r="AA63">
-        <v>0.0</v>
-      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63"/>
       <c r="AB63">
         <v>0.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63" t="s">
-        <v>42</v>
+      <c r="AC63">
+        <v>0.0</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10006,33 +10142,35 @@
       <c r="R64" s="1">
         <v>0</v>
       </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1"/>
       <c r="U64" s="6">
         <v>0.0</v>
       </c>
       <c r="V64" s="1">
-        <v>0</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
-      <c r="Z64" s="1"/>
-      <c r="AA64">
-        <v>0.0</v>
-      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64"/>
       <c r="AB64">
         <v>0.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64" t="s">
-        <v>42</v>
+      <c r="AC64">
+        <v>0.0</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10074,33 +10212,35 @@
       <c r="R65" s="1">
         <v>0</v>
       </c>
-      <c r="S65" s="2"/>
-      <c r="T65" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1"/>
       <c r="U65" s="6">
         <v>0.0</v>
       </c>
       <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
-      <c r="Z65" s="1"/>
-      <c r="AA65">
-        <v>0.0</v>
-      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65"/>
       <c r="AB65">
         <v>0.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65" t="s">
-        <v>42</v>
+      <c r="AC65">
+        <v>0.0</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10142,33 +10282,35 @@
       <c r="R66" s="1">
         <v>0</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1"/>
       <c r="U66" s="6">
         <v>0.0</v>
       </c>
       <c r="V66" s="1">
-        <v>0</v>
-      </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
-      <c r="Z66" s="1"/>
-      <c r="AA66">
-        <v>0.0</v>
-      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66"/>
       <c r="AB66">
         <v>0.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66" t="s">
-        <v>42</v>
+      <c r="AC66">
+        <v>0.0</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10210,33 +10352,35 @@
       <c r="R67" s="1">
         <v>0</v>
       </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1"/>
       <c r="U67" s="6">
         <v>0.0</v>
       </c>
       <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
-      <c r="Z67" s="1"/>
-      <c r="AA67">
-        <v>0.0</v>
-      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67"/>
       <c r="AB67">
         <v>0.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67" t="s">
-        <v>42</v>
+      <c r="AC67">
+        <v>0.0</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10278,33 +10422,35 @@
       <c r="R68" s="1">
         <v>0</v>
       </c>
-      <c r="S68" s="2"/>
-      <c r="T68" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1"/>
       <c r="U68" s="6">
         <v>0.0</v>
       </c>
       <c r="V68" s="1">
-        <v>0</v>
-      </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
-      <c r="Z68" s="1"/>
-      <c r="AA68">
-        <v>0.0</v>
-      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68"/>
       <c r="AB68">
         <v>0.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68" t="s">
-        <v>42</v>
+      <c r="AC68">
+        <v>0.0</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10346,33 +10492,35 @@
       <c r="R69" s="1">
         <v>0</v>
       </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1"/>
       <c r="U69" s="6">
         <v>0.0</v>
       </c>
       <c r="V69" s="1">
-        <v>0</v>
-      </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
-      <c r="Z69" s="1"/>
-      <c r="AA69">
-        <v>0.0</v>
-      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69"/>
       <c r="AB69">
         <v>0.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69" t="s">
-        <v>42</v>
+      <c r="AC69">
+        <v>0.0</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10414,33 +10562,35 @@
       <c r="R70" s="1">
         <v>0</v>
       </c>
-      <c r="S70" s="2"/>
-      <c r="T70" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1"/>
       <c r="U70" s="6">
         <v>0.0</v>
       </c>
       <c r="V70" s="1">
-        <v>0</v>
-      </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
-      <c r="Z70" s="1"/>
-      <c r="AA70">
-        <v>0.0</v>
-      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70"/>
       <c r="AB70">
         <v>0.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70" t="s">
-        <v>42</v>
+      <c r="AC70">
+        <v>0.0</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10482,33 +10632,35 @@
       <c r="R71" s="1">
         <v>0</v>
       </c>
-      <c r="S71" s="2"/>
-      <c r="T71" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1"/>
       <c r="U71" s="6">
         <v>0.0</v>
       </c>
       <c r="V71" s="1">
-        <v>0</v>
-      </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
-      <c r="Z71" s="1"/>
-      <c r="AA71">
-        <v>0.0</v>
-      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71"/>
       <c r="AB71">
         <v>0.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71" t="s">
-        <v>42</v>
+      <c r="AC71">
+        <v>0.0</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10550,33 +10702,36 @@
       <c r="R72" s="5">
         <v>0</v>
       </c>
-      <c r="S72" s="16"/>
-      <c r="T72" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="S72" s="5">
+        <v>0</v>
+      </c>
+      <c r="T72" s="5"/>
       <c r="U72" s="5">
         <v>0.0</v>
       </c>
       <c r="V72" s="5">
-        <v>0</v>
-      </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W72" s="5">
+        <v>0</v>
+      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="Z72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="15"/>
       <c r="AB72" s="15">
         <v>0.0</v>
       </c>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="15" t="s">
-        <v>42</v>
+      <c r="AC72" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AD72" s="15"/>
+      <c r="AE72" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -10597,15 +10752,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -10625,15 +10779,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -10653,15 +10806,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -10681,15 +10833,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -10709,15 +10860,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -10737,15 +10887,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -10765,15 +10914,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -10793,15 +10941,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/tests/Feature/config/child_zero.xlsx
+++ b/tests/Feature/config/child_zero.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>private</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -151,16 +151,13 @@
     <t>Income and expences related to children</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">Barnetrygd0 Asset rule </t>
+    <t xml:space="preserve">Barnetrygd Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve">Barnetrygd00 Asset rule </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0Slutt på sponsing av barn0 Asset rule </t>
+    <t xml:space="preserve">Slutt på sponsing av barn Asset rule: </t>
   </si>
 </sst>
 </file>
@@ -569,7 +566,7 @@
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -582,7 +579,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -1976,15 +1973,15 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1">
@@ -2026,17 +2023,17 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -2055,15 +2052,15 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1">
@@ -2105,17 +2102,17 @@
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2134,15 +2131,15 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="1">
@@ -2184,17 +2181,17 @@
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -2213,15 +2210,15 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="1">
@@ -2263,17 +2260,17 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -2292,15 +2289,15 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="1">
@@ -2342,17 +2339,17 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -2371,15 +2368,15 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="1">
@@ -2421,17 +2418,17 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -2450,15 +2447,15 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="1">
@@ -2500,17 +2497,17 @@
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -2529,15 +2526,15 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="1">
@@ -2579,17 +2576,17 @@
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -2608,15 +2605,15 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1">
@@ -2658,17 +2655,17 @@
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -2687,15 +2684,15 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="1">
@@ -2737,17 +2734,17 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -2766,15 +2763,15 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="1">
@@ -2816,17 +2813,17 @@
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -2845,15 +2842,15 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1">
@@ -2895,17 +2892,17 @@
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -2924,15 +2921,15 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1">
@@ -2974,17 +2971,17 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -3003,15 +3000,15 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="1">
@@ -3053,17 +3050,17 @@
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -3082,15 +3079,15 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="1">
@@ -3132,17 +3129,17 @@
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -3161,15 +3158,15 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="1">
@@ -3211,17 +3208,17 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -3240,15 +3237,15 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1">
@@ -3290,17 +3287,17 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -3319,15 +3316,15 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="8">
@@ -3369,17 +3366,17 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -3398,15 +3395,15 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11">
@@ -3448,25 +3445,23 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>-2345.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0</v>
       </c>
       <c r="AE40" s="10"/>
-      <c r="AF40" s="10">
-        <v>0.01</v>
-      </c>
+      <c r="AF40" s="10"/>
       <c r="AG40"/>
     </row>
     <row r="41" spans="1:33">
@@ -3477,15 +3472,15 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1">
@@ -3527,25 +3522,22 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>-2345.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41"/>
-      <c r="AF41">
-        <v>0.01</v>
-      </c>
       <c r="AG41"/>
     </row>
     <row r="42" spans="1:33">
@@ -3556,15 +3548,15 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1">
@@ -3606,25 +3598,22 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>-2345.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42"/>
-      <c r="AF42">
-        <v>0.01</v>
-      </c>
       <c r="AG42"/>
     </row>
     <row r="43" spans="1:33">
@@ -3635,15 +3624,15 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1">
@@ -3685,25 +3674,22 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>-2345.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43"/>
-      <c r="AF43">
-        <v>0.01</v>
-      </c>
       <c r="AG43"/>
     </row>
     <row r="44" spans="1:33">
@@ -3714,7 +3700,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
@@ -3722,7 +3708,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1">
@@ -3764,25 +3750,22 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44"/>
-      <c r="AF44">
-        <v>0.01</v>
-      </c>
       <c r="AG44"/>
     </row>
     <row r="45" spans="1:33">
@@ -3793,7 +3776,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
@@ -3801,7 +3784,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1">
@@ -3843,25 +3826,22 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45"/>
-      <c r="AF45">
-        <v>0.01</v>
-      </c>
       <c r="AG45"/>
     </row>
     <row r="46" spans="1:33">
@@ -3872,7 +3852,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
@@ -3880,7 +3860,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1">
@@ -3922,25 +3902,22 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0</v>
       </c>
       <c r="AE46"/>
-      <c r="AF46">
-        <v>0.01</v>
-      </c>
       <c r="AG46"/>
     </row>
     <row r="47" spans="1:33">
@@ -3951,7 +3928,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
@@ -3959,7 +3936,7 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1">
@@ -4001,25 +3978,22 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47"/>
-      <c r="AF47">
-        <v>0.01</v>
-      </c>
       <c r="AG47"/>
     </row>
     <row r="48" spans="1:33">
@@ -4030,7 +4004,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
@@ -4038,7 +4012,7 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1">
@@ -4080,25 +4054,22 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48"/>
-      <c r="AF48">
-        <v>0.01</v>
-      </c>
       <c r="AG48"/>
     </row>
     <row r="49" spans="1:33">
@@ -4109,7 +4080,7 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
@@ -4117,7 +4088,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1">
@@ -4159,25 +4130,22 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0</v>
       </c>
       <c r="AE49"/>
-      <c r="AF49">
-        <v>0.01</v>
-      </c>
       <c r="AG49"/>
     </row>
     <row r="50" spans="1:33">
@@ -4188,7 +4156,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
@@ -4196,7 +4164,7 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1">
@@ -4238,25 +4206,22 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50"/>
-      <c r="AF50">
-        <v>0.01</v>
-      </c>
       <c r="AG50"/>
     </row>
     <row r="51" spans="1:33">
@@ -4267,7 +4232,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
@@ -4275,7 +4240,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1">
@@ -4317,25 +4282,22 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51"/>
-      <c r="AF51">
-        <v>0.01</v>
-      </c>
       <c r="AG51"/>
     </row>
     <row r="52" spans="1:33">
@@ -4346,7 +4308,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
@@ -4354,7 +4316,7 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1">
@@ -4396,25 +4358,22 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0</v>
       </c>
       <c r="AE52"/>
-      <c r="AF52">
-        <v>0.01</v>
-      </c>
       <c r="AG52"/>
     </row>
     <row r="53" spans="1:33">
@@ -4425,7 +4384,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -4433,7 +4392,7 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13">
@@ -4475,25 +4434,23 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
       </c>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="3">
-        <v>0.01</v>
-      </c>
+      <c r="AF53" s="3"/>
       <c r="AG53"/>
     </row>
     <row r="54" spans="1:33">
@@ -4504,7 +4461,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -4512,7 +4469,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
@@ -4554,25 +4511,22 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54"/>
-      <c r="AF54">
-        <v>0.01</v>
-      </c>
       <c r="AG54"/>
     </row>
     <row r="55" spans="1:33">
@@ -4583,7 +4537,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -4591,7 +4545,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
@@ -4633,25 +4587,22 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55"/>
-      <c r="AF55">
-        <v>0.01</v>
-      </c>
       <c r="AG55"/>
     </row>
     <row r="56" spans="1:33">
@@ -4662,7 +4613,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -4670,7 +4621,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
@@ -4712,25 +4663,22 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56"/>
-      <c r="AF56">
-        <v>0.01</v>
-      </c>
       <c r="AG56"/>
     </row>
     <row r="57" spans="1:33">
@@ -4741,7 +4689,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -4749,7 +4697,7 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13">
@@ -4791,25 +4739,23 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
       </c>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="3">
-        <v>0.01</v>
-      </c>
+      <c r="AF57" s="3"/>
       <c r="AG57"/>
     </row>
     <row r="58" spans="1:33">
@@ -4820,7 +4766,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -4828,7 +4774,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="1">
@@ -4870,25 +4816,22 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58"/>
-      <c r="AF58">
-        <v>0.01</v>
-      </c>
       <c r="AG58"/>
     </row>
     <row r="59" spans="1:33">
@@ -4899,7 +4842,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -4907,7 +4850,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1">
@@ -4949,25 +4892,22 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59"/>
-      <c r="AF59">
-        <v>0.01</v>
-      </c>
       <c r="AG59"/>
     </row>
     <row r="60" spans="1:33">
@@ -4978,7 +4918,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -4986,7 +4926,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="1">
@@ -5028,25 +4968,22 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60"/>
-      <c r="AF60">
-        <v>0.01</v>
-      </c>
       <c r="AG60"/>
     </row>
     <row r="61" spans="1:33">
@@ -5057,7 +4994,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -5065,7 +5002,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1">
@@ -5107,25 +5044,22 @@
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61"/>
-      <c r="AF61">
-        <v>0.01</v>
-      </c>
       <c r="AG61"/>
     </row>
     <row r="62" spans="1:33">
@@ -5136,7 +5070,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -5144,7 +5078,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1">
@@ -5186,25 +5120,22 @@
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62"/>
-      <c r="AF62">
-        <v>0.01</v>
-      </c>
       <c r="AG62"/>
     </row>
     <row r="63" spans="1:33">
@@ -5215,7 +5146,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -5223,7 +5154,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="1">
@@ -5265,25 +5196,22 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63"/>
-      <c r="AF63">
-        <v>0.01</v>
-      </c>
       <c r="AG63"/>
     </row>
     <row r="64" spans="1:33">
@@ -5294,7 +5222,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -5302,7 +5230,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1">
@@ -5344,25 +5272,22 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64"/>
-      <c r="AF64">
-        <v>0.01</v>
-      </c>
       <c r="AG64"/>
     </row>
     <row r="65" spans="1:33">
@@ -5373,7 +5298,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -5381,7 +5306,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="1">
@@ -5423,25 +5348,22 @@
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65"/>
-      <c r="AF65">
-        <v>0.01</v>
-      </c>
       <c r="AG65"/>
     </row>
     <row r="66" spans="1:33">
@@ -5452,7 +5374,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -5460,7 +5382,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1">
@@ -5502,25 +5424,22 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66"/>
-      <c r="AF66">
-        <v>0.01</v>
-      </c>
       <c r="AG66"/>
     </row>
     <row r="67" spans="1:33">
@@ -5531,7 +5450,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -5539,7 +5458,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1">
@@ -5581,25 +5500,22 @@
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67"/>
-      <c r="AF67">
-        <v>0.01</v>
-      </c>
       <c r="AG67"/>
     </row>
     <row r="68" spans="1:33">
@@ -5610,7 +5526,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -5618,7 +5534,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1">
@@ -5660,25 +5576,22 @@
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68"/>
-      <c r="AF68">
-        <v>0.01</v>
-      </c>
       <c r="AG68"/>
     </row>
     <row r="69" spans="1:33">
@@ -5689,7 +5602,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -5697,7 +5610,7 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1">
@@ -5739,25 +5652,22 @@
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69"/>
-      <c r="AF69">
-        <v>0.01</v>
-      </c>
       <c r="AG69"/>
     </row>
     <row r="70" spans="1:33">
@@ -5768,7 +5678,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -5776,7 +5686,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1">
@@ -5818,25 +5728,22 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70"/>
-      <c r="AF70">
-        <v>0.01</v>
-      </c>
       <c r="AG70"/>
     </row>
     <row r="71" spans="1:33">
@@ -5847,7 +5754,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -5855,7 +5762,7 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1">
@@ -5897,25 +5804,22 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71"/>
-      <c r="AF71">
-        <v>0.01</v>
-      </c>
       <c r="AG71"/>
     </row>
     <row r="72" spans="1:33">
@@ -5926,7 +5830,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -5934,7 +5838,7 @@
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="5">
@@ -5976,25 +5880,23 @@
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
       </c>
       <c r="AE72" s="15"/>
-      <c r="AF72" s="15">
-        <v>0.01</v>
-      </c>
+      <c r="AF72" s="15"/>
       <c r="AG72"/>
     </row>
     <row r="73" spans="1:33">
@@ -6272,7 +6174,7 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="47.131" bestFit="true" customWidth="true" style="0"/>
@@ -6285,7 +6187,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6505,7 +6407,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6575,7 +6477,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6645,7 +6547,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6715,7 +6617,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6785,7 +6687,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6855,7 +6757,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6925,7 +6827,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6995,7 +6897,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -7065,7 +6967,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -7135,7 +7037,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -7205,7 +7107,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7275,7 +7177,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7345,7 +7247,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7415,7 +7317,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7485,7 +7387,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7555,7 +7457,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7587,15 +7489,15 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H22" s="2">
         <v>0.5</v>
@@ -7625,21 +7527,21 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -7657,15 +7559,15 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H23" s="2">
         <v>0.5</v>
@@ -7695,21 +7597,21 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -7727,15 +7629,15 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H24" s="2">
         <v>0.5</v>
@@ -7765,21 +7667,21 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -7797,15 +7699,15 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H25" s="2">
         <v>0.5</v>
@@ -7835,21 +7737,21 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -7867,15 +7769,15 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H26" s="2">
         <v>0.5</v>
@@ -7905,21 +7807,21 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -7937,15 +7839,15 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
-        <v>883.0</v>
+        <v>10596.0</v>
       </c>
       <c r="H27" s="2">
         <v>0.5</v>
@@ -7975,21 +7877,21 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
-        <v>-2117.0</v>
+        <v>-25404.0</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>1766.0</v>
+        <v>21192.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>8830.0</v>
+        <v>105960.0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -8007,15 +7909,15 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H28" s="2">
         <v>0.5</v>
@@ -8045,28 +7947,28 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28"/>
       <c r="AG28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -8077,15 +7979,15 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H29" s="2">
         <v>0.5</v>
@@ -8115,21 +8017,21 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -8147,15 +8049,15 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H30" s="2">
         <v>0.5</v>
@@ -8185,21 +8087,21 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -8217,15 +8119,15 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H31" s="2">
         <v>0.5</v>
@@ -8255,21 +8157,21 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -8287,15 +8189,15 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H32" s="2">
         <v>0.5</v>
@@ -8325,21 +8227,21 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -8357,15 +8259,15 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H33" s="2">
         <v>0.5</v>
@@ -8395,21 +8297,21 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -8427,15 +8329,15 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H34" s="2">
         <v>0.5</v>
@@ -8465,21 +8367,21 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -8497,15 +8399,15 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H35" s="2">
         <v>0.5</v>
@@ -8535,21 +8437,21 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -8567,15 +8469,15 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H36" s="2">
         <v>0.5</v>
@@ -8605,21 +8507,21 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -8637,15 +8539,15 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H37" s="2">
         <v>0.5</v>
@@ -8675,21 +8577,21 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -8707,15 +8609,15 @@
         <v>48</v>
       </c>
       <c r="C38" s="4">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H38" s="2">
         <v>0.5</v>
@@ -8745,21 +8647,21 @@
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -8777,15 +8679,15 @@
         <v>49</v>
       </c>
       <c r="C39" s="8">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
-        <v>655.0</v>
+        <v>7860.0</v>
       </c>
       <c r="H39" s="9">
         <v>0.5</v>
@@ -8815,21 +8717,21 @@
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>-2345.0</v>
+        <v>-28140.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>1310.0</v>
+        <v>15720.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>6550.0</v>
+        <v>78600.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -8837,7 +8739,7 @@
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
       <c r="AG39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -8848,15 +8750,15 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" s="12">
         <v>0.5</v>
@@ -8886,21 +8788,21 @@
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>-2345.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0</v>
@@ -8919,15 +8821,15 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" s="2">
         <v>0.5</v>
@@ -8957,21 +8859,21 @@
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>-2345.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -8989,15 +8891,15 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" s="2">
         <v>0.5</v>
@@ -9027,21 +8929,21 @@
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>-2345.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -9059,15 +8961,15 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>3000.0</v>
+        <v>36000.0</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" s="2">
         <v>0.5</v>
@@ -9097,21 +8999,21 @@
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>-2345.0</v>
+        <v>-36000.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -9129,7 +9031,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
@@ -9137,7 +9039,7 @@
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" s="2">
         <v>0.5</v>
@@ -9167,28 +9069,28 @@
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44"/>
       <c r="AG44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -9199,7 +9101,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
@@ -9207,7 +9109,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H45" s="2">
         <v>0.5</v>
@@ -9237,21 +9139,21 @@
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -9269,7 +9171,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
@@ -9277,7 +9179,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H46" s="2">
         <v>0.5</v>
@@ -9307,21 +9209,21 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -9339,7 +9241,7 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
@@ -9347,7 +9249,7 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" s="2">
         <v>0.5</v>
@@ -9377,21 +9279,21 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -9409,7 +9311,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
@@ -9417,7 +9319,7 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H48" s="2">
         <v>0.5</v>
@@ -9447,21 +9349,21 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -9479,7 +9381,7 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
@@ -9487,7 +9389,7 @@
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H49" s="2">
         <v>0.5</v>
@@ -9517,21 +9419,21 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -9549,7 +9451,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
@@ -9557,7 +9459,7 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H50" s="2">
         <v>0.5</v>
@@ -9587,21 +9489,21 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -9619,7 +9521,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
@@ -9627,7 +9529,7 @@
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" s="2">
         <v>0.5</v>
@@ -9657,21 +9559,21 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -9689,7 +9591,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
@@ -9697,7 +9599,7 @@
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H52" s="2">
         <v>0.5</v>
@@ -9727,21 +9629,21 @@
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0</v>
@@ -9759,7 +9661,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -9767,7 +9669,7 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H53" s="14">
         <v>0.5</v>
@@ -9797,21 +9699,21 @@
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -9830,7 +9732,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -9838,7 +9740,7 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H54" s="2">
         <v>0.5</v>
@@ -9868,21 +9770,21 @@
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -9900,7 +9802,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -9908,7 +9810,7 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H55" s="2">
         <v>0.5</v>
@@ -9938,21 +9840,21 @@
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -9970,7 +9872,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -9978,7 +9880,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H56" s="2">
         <v>0.5</v>
@@ -10008,21 +9910,21 @@
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -10040,7 +9942,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -10048,7 +9950,7 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H57" s="14">
         <v>0.5</v>
@@ -10078,21 +9980,21 @@
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -10111,7 +10013,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -10119,7 +10021,7 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H58" s="2">
         <v>0.5</v>
@@ -10149,21 +10051,21 @@
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -10181,7 +10083,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -10189,7 +10091,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H59" s="2">
         <v>0.5</v>
@@ -10219,21 +10121,21 @@
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -10251,7 +10153,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -10259,7 +10161,7 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H60" s="2">
         <v>0.5</v>
@@ -10289,21 +10191,21 @@
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -10321,7 +10223,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -10329,7 +10231,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H61" s="2">
         <v>0.5</v>
@@ -10359,21 +10261,21 @@
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -10391,7 +10293,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -10399,7 +10301,7 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H62" s="2">
         <v>0.5</v>
@@ -10429,21 +10331,21 @@
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -10461,7 +10363,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -10469,7 +10371,7 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H63" s="2">
         <v>0.5</v>
@@ -10499,21 +10401,21 @@
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -10531,7 +10433,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -10539,7 +10441,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H64" s="2">
         <v>0.5</v>
@@ -10569,21 +10471,21 @@
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -10601,7 +10503,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -10609,7 +10511,7 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H65" s="2">
         <v>0.5</v>
@@ -10639,21 +10541,21 @@
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -10671,7 +10573,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -10679,7 +10581,7 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H66" s="2">
         <v>0.5</v>
@@ -10709,21 +10611,21 @@
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -10741,7 +10643,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
@@ -10749,7 +10651,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H67" s="2">
         <v>0.5</v>
@@ -10779,21 +10681,21 @@
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -10811,7 +10713,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
@@ -10819,7 +10721,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H68" s="2">
         <v>0.5</v>
@@ -10849,21 +10751,21 @@
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -10881,7 +10783,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
@@ -10889,7 +10791,7 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H69" s="2">
         <v>0.5</v>
@@ -10919,21 +10821,21 @@
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -10951,7 +10853,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
@@ -10959,7 +10861,7 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H70" s="2">
         <v>0.5</v>
@@ -10989,21 +10891,21 @@
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -11021,7 +10923,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
@@ -11029,7 +10931,7 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H71" s="2">
         <v>0.5</v>
@@ -11059,21 +10961,21 @@
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -11091,7 +10993,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
@@ -11099,7 +11001,7 @@
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="H72" s="16">
         <v>0.5</v>
@@ -11129,21 +11031,21 @@
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>655.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>1310.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>6550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
